--- a/Assets/StreamingAssets/Excel/Digger.xlsx
+++ b/Assets/StreamingAssets/Excel/Digger.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662671E2-571C-41E0-B24F-D6690803DA75}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8928A1A-4E86-497E-9147-430A22E4E5A8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>注释</t>
   </si>
@@ -61,6 +61,10 @@
   </si>
   <si>
     <t>注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecoveringSpeedBonus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,15 +393,18 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="44" customWidth="1"/>
+    <col min="6" max="6" width="54.44140625" customWidth="1"/>
+    <col min="7" max="7" width="42.33203125" customWidth="1"/>
+    <col min="8" max="8" width="55.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -443,7 +450,7 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
